--- a/dataset4POC 3.xlsx
+++ b/dataset4POC 3.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namalli\personal\data engineering\RouteOptimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5992B771-6724-47C5-9273-1CD45527A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="graph"/>
-    <sheet r:id="rId2" sheetId="2" name="coordinates"/>
-    <sheet r:id="rId3" sheetId="3" name="image"/>
+    <sheet name="graph" sheetId="1" r:id="rId1"/>
+    <sheet name="coordinates" sheetId="2" r:id="rId2"/>
+    <sheet name="image" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Node</t>
   </si>
@@ -166,13 +185,18 @@
   </si>
   <si>
     <t>distance</t>
+  </si>
+  <si>
+    <t>speed limit</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,62 +257,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -299,10 +323,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -340,71 +364,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,7 +456,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -455,11 +479,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -468,13 +492,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -484,7 +508,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -493,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -502,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -510,10 +534,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -578,23 +602,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>46</v>
       </c>
@@ -607,8 +634,14 @@
       <c r="D1" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="E1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -621,8 +654,15 @@
       <c r="D2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="E2" s="16">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <f>D2/E2 * 60</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -635,8 +675,15 @@
       <c r="D3" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="E3" s="16">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F62" si="0">D3/E3 * 60</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -649,8 +696,15 @@
       <c r="D4" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="E4" s="16">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -663,8 +717,15 @@
       <c r="D5" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -677,8 +738,15 @@
       <c r="D6" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="E6" s="16">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -691,8 +759,15 @@
       <c r="D7" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="E7" s="16">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>34</v>
       </c>
@@ -705,8 +780,15 @@
       <c r="D8" s="13">
         <v>0.1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="E8" s="16">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>34</v>
       </c>
@@ -719,8 +801,15 @@
       <c r="D9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="E9" s="16">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>4</v>
       </c>
@@ -733,8 +822,15 @@
       <c r="D10" s="13">
         <v>0.1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="E10" s="16">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -747,8 +843,15 @@
       <c r="D11" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="E11" s="16">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -761,8 +864,15 @@
       <c r="D12" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="E12" s="16">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -775,8 +885,15 @@
       <c r="D13" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="E13" s="16">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>5</v>
       </c>
@@ -789,8 +906,15 @@
       <c r="D14" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="E14" s="16">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -803,8 +927,15 @@
       <c r="D15" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="E15" s="16">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -817,8 +948,15 @@
       <c r="D16" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="E16" s="16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>12</v>
       </c>
@@ -831,8 +969,15 @@
       <c r="D17" s="13">
         <v>1.8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="E17" s="16">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>6</v>
       </c>
@@ -845,8 +990,15 @@
       <c r="D18" s="13">
         <v>0.7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="E18" s="16">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>7</v>
       </c>
@@ -859,8 +1011,15 @@
       <c r="D19" s="13">
         <v>0.7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="E19" s="16">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -873,8 +1032,15 @@
       <c r="D20" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="E20" s="16">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>13</v>
       </c>
@@ -887,8 +1053,15 @@
       <c r="D21" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="E21" s="16">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>15</v>
       </c>
@@ -901,8 +1074,15 @@
       <c r="D22" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="E22" s="16">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>15</v>
       </c>
@@ -915,8 +1095,15 @@
       <c r="D23" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="E23" s="16">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>18</v>
       </c>
@@ -929,8 +1116,15 @@
       <c r="D24" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="E24" s="16">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>17</v>
       </c>
@@ -943,8 +1137,15 @@
       <c r="D25" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="E25" s="16">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>16</v>
       </c>
@@ -957,8 +1158,15 @@
       <c r="D26" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="E26" s="16">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>16</v>
       </c>
@@ -971,8 +1179,15 @@
       <c r="D27" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="E27" s="16">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>17</v>
       </c>
@@ -985,8 +1200,15 @@
       <c r="D28" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="E28" s="16">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>19</v>
       </c>
@@ -999,8 +1221,15 @@
       <c r="D29" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="E29" s="16">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>23</v>
       </c>
@@ -1013,8 +1242,15 @@
       <c r="D30" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="E30" s="16">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>20</v>
       </c>
@@ -1027,8 +1263,15 @@
       <c r="D31" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="E31" s="16">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>20</v>
       </c>
@@ -1041,8 +1284,15 @@
       <c r="D32" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="E32" s="16">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>21</v>
       </c>
@@ -1055,8 +1305,15 @@
       <c r="D33" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="E33" s="16">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>22</v>
       </c>
@@ -1069,8 +1326,15 @@
       <c r="D34" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="E34" s="16">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>22</v>
       </c>
@@ -1083,8 +1347,15 @@
       <c r="D35" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="E35" s="16">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>31</v>
       </c>
@@ -1097,8 +1368,15 @@
       <c r="D36" s="13">
         <v>0.6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="E36" s="16">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>31</v>
       </c>
@@ -1111,8 +1389,15 @@
       <c r="D37" s="13">
         <v>0.9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="E37" s="16">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>32</v>
       </c>
@@ -1125,8 +1410,15 @@
       <c r="D38" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="E38" s="16">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>32</v>
       </c>
@@ -1139,8 +1431,15 @@
       <c r="D39" s="13">
         <v>3.4</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="E39" s="16">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>33</v>
       </c>
@@ -1153,8 +1452,15 @@
       <c r="D40" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="E40" s="16">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>7</v>
       </c>
@@ -1167,8 +1473,15 @@
       <c r="D41" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="E41" s="16">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>10</v>
       </c>
@@ -1181,8 +1494,15 @@
       <c r="D42" s="13">
         <v>0.6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="E42" s="16">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>9</v>
       </c>
@@ -1195,8 +1515,15 @@
       <c r="D43" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="E43" s="16">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>38</v>
       </c>
@@ -1209,8 +1536,15 @@
       <c r="D44" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="E44" s="16">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>10</v>
       </c>
@@ -1223,8 +1557,15 @@
       <c r="D45" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="E45" s="16">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>35</v>
       </c>
@@ -1237,8 +1578,15 @@
       <c r="D46" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="E46" s="16">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>36</v>
       </c>
@@ -1251,8 +1599,15 @@
       <c r="D47" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="E47" s="16">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>30</v>
       </c>
@@ -1265,8 +1620,15 @@
       <c r="D48" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="E48" s="16">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>23</v>
       </c>
@@ -1279,8 +1641,15 @@
       <c r="D49" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="E49" s="16">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>24</v>
       </c>
@@ -1293,8 +1662,15 @@
       <c r="D50" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="E50" s="16">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>25</v>
       </c>
@@ -1307,8 +1683,15 @@
       <c r="D51" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="E51" s="16">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>26</v>
       </c>
@@ -1321,8 +1704,15 @@
       <c r="D52" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="E52" s="16">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>27</v>
       </c>
@@ -1335,8 +1725,15 @@
       <c r="D53" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="E53" s="16">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>28</v>
       </c>
@@ -1349,8 +1746,15 @@
       <c r="D54" s="13">
         <v>0.6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="E54" s="16">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>20</v>
       </c>
@@ -1363,8 +1767,15 @@
       <c r="D55" s="13">
         <v>0.3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="E55" s="16">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>40</v>
       </c>
@@ -1377,8 +1788,15 @@
       <c r="D56" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="E56" s="16">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>39</v>
       </c>
@@ -1391,8 +1809,15 @@
       <c r="D57" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="E57" s="16">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>19</v>
       </c>
@@ -1405,8 +1830,15 @@
       <c r="D58" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="E58" s="16">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>42</v>
       </c>
@@ -1419,8 +1851,15 @@
       <c r="D59" s="13">
         <v>0.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="E59" s="16">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>42</v>
       </c>
@@ -1433,8 +1872,15 @@
       <c r="D60" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="E60" s="16">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>43</v>
       </c>
@@ -1447,8 +1893,15 @@
       <c r="D61" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="E61" s="16">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>44</v>
       </c>
@@ -1461,28 +1914,36 @@
       <c r="D62" s="13">
         <v>1.6</v>
       </c>
+      <c r="E62" s="16">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1498,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1506,7 +1967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1514,7 +1975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1522,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1530,7 +1991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1538,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1546,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1554,7 +2015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1562,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1570,7 +2031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1578,7 +2039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1586,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1594,7 +2055,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1602,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1610,7 +2071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1618,7 +2079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1626,7 +2087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1634,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1642,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1650,7 +2111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1658,7 +2119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1666,7 +2127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1674,7 +2135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1682,7 +2143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1690,7 +2151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1698,7 +2159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1706,7 +2167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1714,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1722,7 +2183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1730,7 +2191,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1738,7 +2199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1746,7 +2207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1754,7 +2215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1762,7 +2223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1770,7 +2231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1778,7 +2239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1786,7 +2247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1794,7 +2255,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1802,7 +2263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1810,7 +2271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1818,7 +2279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1826,7 +2287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1834,7 +2295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1842,17 +2303,18 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1860,8 +2322,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>